--- a/biology/Botanique/Magnolia_odora/Magnolia_odora.xlsx
+++ b/biology/Botanique/Magnolia_odora/Magnolia_odora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia odora est une espèce de plantes à fleurs de la famille des Magnoliacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Chine (provinces de Fujian, Guangdong, Guangxi, Guizhou, Hainan, Hunan, Jiangxi et Yunnan), au Laos et au Viêt Nam. Elle pousse dans la forêt tropicale humide de basse altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Chine (provinces de Fujian, Guangdong, Guangxi, Guizhou, Hainan, Hunan, Jiangxi et Yunnan), au Laos et au Viêt Nam. Elle pousse dans la forêt tropicale humide de basse altitude.
 </t>
         </is>
       </c>
